--- a/Code/Results/Cases/Case_2_67/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_67/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.20217135603076</v>
+        <v>15.30803754805065</v>
       </c>
       <c r="C2">
-        <v>6.043251300008246</v>
+        <v>7.466838059971029</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.793528438864699</v>
+        <v>11.63119828460207</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>33.40311287361254</v>
+        <v>43.34839462607674</v>
       </c>
       <c r="H2">
-        <v>11.58472762762511</v>
+        <v>17.96528885461717</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.36998959348994</v>
+        <v>11.62206511110484</v>
       </c>
       <c r="L2">
-        <v>6.884424156194326</v>
+        <v>9.879110084296308</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.86364684441012</v>
+        <v>21.05370929473121</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.32457131118504</v>
+        <v>15.11697530907573</v>
       </c>
       <c r="C3">
-        <v>5.940388460201797</v>
+        <v>7.436619688945807</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.65238913853438</v>
+        <v>11.63632060300179</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>32.98097509573287</v>
+        <v>43.40566878627979</v>
       </c>
       <c r="H3">
-        <v>11.62574762002416</v>
+        <v>18.01548792079482</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.60999565968774</v>
+        <v>11.49461062204216</v>
       </c>
       <c r="L3">
-        <v>6.689852240655152</v>
+        <v>9.8690195119026</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.1009064734352</v>
+        <v>21.12182643385264</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.76551543978103</v>
+        <v>15.00214567654348</v>
       </c>
       <c r="C4">
-        <v>5.876326920954013</v>
+        <v>7.417666176567137</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.569028619158079</v>
+        <v>11.64148435617159</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>32.75460401302816</v>
+        <v>43.45257127351685</v>
       </c>
       <c r="H4">
-        <v>11.65871324375174</v>
+        <v>18.04923104990212</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.11729516715323</v>
+        <v>11.41825837136148</v>
       </c>
       <c r="L4">
-        <v>6.571453951167654</v>
+        <v>9.864581121215602</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.24978955448759</v>
+        <v>21.16560678525283</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.53282371966336</v>
+        <v>14.9560323016867</v>
       </c>
       <c r="C5">
-        <v>5.850000046144797</v>
+        <v>7.409843296101898</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.535909486468935</v>
+        <v>11.64409671408608</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>32.67038080964885</v>
+        <v>43.47462602694754</v>
       </c>
       <c r="H5">
-        <v>11.67402389268973</v>
+        <v>18.06371534946115</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.909920042370741</v>
+        <v>11.38765787214931</v>
       </c>
       <c r="L5">
-        <v>6.523533488151753</v>
+        <v>9.863216080908236</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.31129250064824</v>
+        <v>21.18394089390627</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.49389826285462</v>
+        <v>14.94841793575135</v>
       </c>
       <c r="C6">
-        <v>5.845615313512581</v>
+        <v>7.408538359250096</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.530462061237368</v>
+        <v>11.64456119213344</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>32.6568731513901</v>
+        <v>43.47846556511985</v>
       </c>
       <c r="H6">
-        <v>11.67667730971615</v>
+        <v>18.06616474828299</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.875086035379097</v>
+        <v>11.38260869667855</v>
       </c>
       <c r="L6">
-        <v>6.515597892270886</v>
+        <v>9.863016258072962</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.32155600464035</v>
+        <v>21.18701509068231</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.76239669187369</v>
+        <v>15.00152094633229</v>
       </c>
       <c r="C7">
-        <v>5.87597275502728</v>
+        <v>7.417561074359695</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.568578490663749</v>
+        <v>11.64151752960194</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>32.75343597641442</v>
+        <v>43.45285681474633</v>
       </c>
       <c r="H7">
-        <v>11.65891223173702</v>
+        <v>18.04942342051258</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.11452519274493</v>
+        <v>11.4178435576249</v>
       </c>
       <c r="L7">
-        <v>6.570806272384525</v>
+        <v>9.864560913390989</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.25061560271247</v>
+        <v>21.16585204646296</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.90387929941517</v>
+        <v>15.24167793096979</v>
       </c>
       <c r="C8">
-        <v>6.007974881321541</v>
+        <v>7.456502382802962</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.744191987479622</v>
+        <v>11.63254583322109</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>33.2506168257385</v>
+        <v>43.3657016479451</v>
       </c>
       <c r="H8">
-        <v>11.59720821682298</v>
+        <v>17.98199086682603</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.11332591906732</v>
+        <v>11.5777443730657</v>
       </c>
       <c r="L8">
-        <v>6.817148240002675</v>
+        <v>9.875267268543395</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.94480483019646</v>
+        <v>21.0767909132015</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.97513353149315</v>
+        <v>15.72981084228364</v>
       </c>
       <c r="C9">
-        <v>6.259469705396575</v>
+        <v>7.529645138443356</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.113765974380621</v>
+        <v>11.63094212358256</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>34.49508488612222</v>
+        <v>43.28827821481014</v>
       </c>
       <c r="H9">
-        <v>11.54162494612379</v>
+        <v>17.8729627275854</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.86730163877645</v>
+        <v>11.90486738284968</v>
       </c>
       <c r="L9">
-        <v>7.306289339229171</v>
+        <v>9.910117787858908</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.3693041406752</v>
+        <v>20.91759978085068</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.40299209083704</v>
+        <v>16.0955079849236</v>
       </c>
       <c r="C10">
-        <v>6.439606762730069</v>
+        <v>7.581351514942878</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.399328966508861</v>
+        <v>11.63946654085591</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>35.58457005264969</v>
+        <v>43.28880785969233</v>
       </c>
       <c r="H10">
-        <v>11.5459546690495</v>
+        <v>17.80705117165894</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.03437237216939</v>
+        <v>12.15134036682225</v>
       </c>
       <c r="L10">
-        <v>7.666425580981401</v>
+        <v>9.944036553951314</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.95943065635539</v>
+        <v>20.80997444013686</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.08434413311617</v>
+        <v>16.26268399296289</v>
       </c>
       <c r="C11">
-        <v>6.520550443681891</v>
+        <v>7.604418565906151</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.532019115223523</v>
+        <v>11.64543802632986</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>36.12019183596956</v>
+        <v>43.30157475773917</v>
       </c>
       <c r="H11">
-        <v>11.55893430900906</v>
+        <v>17.78015688643381</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.53966846095782</v>
+        <v>12.26434229587207</v>
       </c>
       <c r="L11">
-        <v>7.829909846350345</v>
+        <v>9.961238689186617</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.7753649641432</v>
+        <v>20.76301994336216</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.3376099154248</v>
+        <v>16.32604733792536</v>
       </c>
       <c r="C12">
-        <v>6.551059903192542</v>
+        <v>7.613086821564266</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.58264548114531</v>
+        <v>11.64799885943983</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>36.32891032728497</v>
+        <v>43.30821262127421</v>
       </c>
       <c r="H12">
-        <v>11.56553618107104</v>
+        <v>17.77041767406114</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.72739522003052</v>
+        <v>12.30722164203628</v>
       </c>
       <c r="L12">
-        <v>7.891732260970734</v>
+        <v>9.968004234393698</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.70597207081114</v>
+        <v>20.7455263682602</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.28327451585793</v>
+        <v>16.31239930099805</v>
       </c>
       <c r="C13">
-        <v>6.544495415906977</v>
+        <v>7.61122294778965</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.571725619519421</v>
+        <v>11.64743404124683</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>36.28369499841011</v>
+        <v>43.30670281957009</v>
       </c>
       <c r="H13">
-        <v>11.56403764351657</v>
+        <v>17.77249537996627</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.68712473224575</v>
+        <v>12.29798350455225</v>
       </c>
       <c r="L13">
-        <v>7.878422008748158</v>
+        <v>9.9665360257017</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.72090390484623</v>
+        <v>20.74928117418013</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.10527516885553</v>
+        <v>16.26789612371632</v>
       </c>
       <c r="C14">
-        <v>6.523063306290938</v>
+        <v>7.605133053945718</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.536176683598329</v>
+        <v>11.6456427132931</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>36.13724442742109</v>
+        <v>43.30208471140916</v>
       </c>
       <c r="H14">
-        <v>11.55944303788083</v>
+        <v>17.779346710978</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.55518497589228</v>
+        <v>12.26786846183136</v>
       </c>
       <c r="L14">
-        <v>7.834997911914495</v>
+        <v>9.961790275160382</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.7696499837519</v>
+        <v>20.76157498993911</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.99562943162359</v>
+        <v>16.24064235156908</v>
       </c>
       <c r="C15">
-        <v>6.509917097696727</v>
+        <v>7.601394085979398</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.514450768659259</v>
+        <v>11.64458443680281</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>36.04831022418468</v>
+        <v>43.29949086625616</v>
       </c>
       <c r="H15">
-        <v>11.5568515100319</v>
+        <v>17.78360133483303</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.47389890496384</v>
+        <v>12.24943244727367</v>
       </c>
       <c r="L15">
-        <v>7.808387297116047</v>
+        <v>9.9589160097388</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.79954752684655</v>
+        <v>20.76914265670387</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.35779572207053</v>
+        <v>16.08459393096965</v>
       </c>
       <c r="C16">
-        <v>6.434296862504047</v>
+        <v>7.579834765731083</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.390711554297493</v>
+        <v>11.63911829608028</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>35.55038289211974</v>
+        <v>43.28822578378717</v>
       </c>
       <c r="H16">
-        <v>11.54533673778784</v>
+        <v>17.80887101218347</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.00084018422539</v>
+        <v>12.14396982635354</v>
       </c>
       <c r="L16">
-        <v>7.655731353997592</v>
+        <v>9.942947733978231</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.9715049092419</v>
+        <v>20.8130832646196</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.98622592451695</v>
+        <v>15.9890296798127</v>
       </c>
       <c r="C17">
-        <v>6.387650471195264</v>
+        <v>7.566491440082357</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.315499362949536</v>
+        <v>11.63630022787213</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>35.25526821872825</v>
+        <v>43.28452522863857</v>
       </c>
       <c r="H17">
-        <v>11.54116526607555</v>
+        <v>17.82516497251105</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.70411936190774</v>
+        <v>12.07946975618277</v>
       </c>
       <c r="L17">
-        <v>7.561966189250742</v>
+        <v>9.93360332088314</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.07758263597957</v>
+        <v>20.84055201522182</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.77608416642681</v>
+        <v>15.93414424087428</v>
       </c>
       <c r="C18">
-        <v>6.360726197565253</v>
+        <v>7.558774021122412</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.272502683179781</v>
+        <v>11.63487651982336</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>35.08928450801883</v>
+        <v>43.28357574666638</v>
       </c>
       <c r="H18">
-        <v>11.53979584923754</v>
+        <v>17.83482755000402</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.53103870266561</v>
+        <v>12.0424561528062</v>
       </c>
       <c r="L18">
-        <v>7.508004386430554</v>
+        <v>9.928395700207213</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.13882265015682</v>
+        <v>20.85654008802886</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.70454400750381</v>
+        <v>15.91557667138143</v>
       </c>
       <c r="C19">
-        <v>6.351593845856692</v>
+        <v>7.556153745767998</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.257990665354233</v>
+        <v>11.63442838366586</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>35.0337264785147</v>
+        <v>43.28345666874158</v>
       </c>
       <c r="H19">
-        <v>11.53950597878836</v>
+        <v>17.83814903839065</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.47201993456307</v>
+        <v>12.02993978697205</v>
       </c>
       <c r="L19">
-        <v>7.48972980280976</v>
+        <v>9.926661277261987</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.15959746832379</v>
+        <v>20.86198583417064</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.02493300849101</v>
+        <v>15.99919475705481</v>
       </c>
       <c r="C20">
-        <v>6.392625832768357</v>
+        <v>7.5679162883017</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.323478730837335</v>
+        <v>11.63657981997184</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>35.28629367757507</v>
+        <v>43.28479711866266</v>
       </c>
       <c r="H20">
-        <v>11.54150199669474</v>
+        <v>17.82340035769582</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.7359552552561</v>
+        <v>12.08632736900178</v>
       </c>
       <c r="L20">
-        <v>7.571951095882396</v>
+        <v>9.934580785448457</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.06626724216816</v>
+        <v>20.83760839125419</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.1576861259232</v>
+        <v>16.28096670174324</v>
       </c>
       <c r="C21">
-        <v>6.529362269404644</v>
+        <v>7.606923625634203</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.546608124804454</v>
+        <v>11.646160752722</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>36.18009959993267</v>
+        <v>43.30339221160094</v>
       </c>
       <c r="H21">
-        <v>11.56074596365127</v>
+        <v>17.77732222332967</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.5940365313548</v>
+        <v>12.27671189764222</v>
       </c>
       <c r="L21">
-        <v>7.847755199184096</v>
+        <v>9.963177420601268</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.75532398119031</v>
+        <v>20.75795621676243</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.88610680314042</v>
+        <v>16.4654285996427</v>
       </c>
       <c r="C22">
-        <v>6.61790121217077</v>
+        <v>7.632027545589247</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.694640126273031</v>
+        <v>11.65416768014923</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>36.79864512936201</v>
+        <v>43.32605610351944</v>
       </c>
       <c r="H22">
-        <v>11.58320537792225</v>
+        <v>17.74980207651408</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.13378757389975</v>
+        <v>12.40163441870914</v>
       </c>
       <c r="L22">
-        <v>8.027498438227045</v>
+        <v>9.983330980018383</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.55388735057118</v>
+        <v>20.70757164757187</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.49983759777664</v>
+        <v>16.36696925109074</v>
       </c>
       <c r="C23">
-        <v>6.570720751761049</v>
+        <v>7.618665220104375</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.615437298640549</v>
+        <v>11.6497350920527</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>36.46532535492219</v>
+        <v>43.312997937377</v>
       </c>
       <c r="H23">
-        <v>11.57027898215354</v>
+        <v>17.76425242148914</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.84761623013502</v>
+        <v>12.3349282213805</v>
       </c>
       <c r="L23">
-        <v>7.931623080788299</v>
+        <v>9.972441875634736</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.66124655592056</v>
+        <v>20.73431018344535</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.00744091645699</v>
+        <v>15.99459894743666</v>
       </c>
       <c r="C24">
-        <v>6.39037680408048</v>
+        <v>7.567272258128164</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.319870497558023</v>
+        <v>11.63645280439962</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>35.27225561052919</v>
+        <v>43.28467052783294</v>
       </c>
       <c r="H24">
-        <v>11.54134656404004</v>
+        <v>17.82419722128848</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.72157001445544</v>
+        <v>12.08322682639088</v>
       </c>
       <c r="L24">
-        <v>7.567437087963938</v>
+        <v>9.934138360734874</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.07138213635124</v>
+        <v>20.83893859323264</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.43349827103136</v>
+        <v>15.59626981854826</v>
       </c>
       <c r="C25">
-        <v>6.192242438442706</v>
+        <v>7.510209920728368</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.011226026160584</v>
+        <v>11.62966807067825</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>34.12836938686397</v>
+        <v>43.29916560218716</v>
       </c>
       <c r="H25">
-        <v>11.5491247581209</v>
+        <v>17.89996865047533</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.41439981898639</v>
+        <v>11.81513901697719</v>
       </c>
       <c r="L25">
-        <v>7.173635137027651</v>
+        <v>9.899219086268287</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.52258358054625</v>
+        <v>20.9590198170167</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_67/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_67/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.30803754805065</v>
+        <v>15.20217135603071</v>
       </c>
       <c r="C2">
-        <v>7.466838059971029</v>
+        <v>6.043251300008257</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.63119828460207</v>
+        <v>7.793528438864654</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>43.34839462607674</v>
+        <v>33.40311287361195</v>
       </c>
       <c r="H2">
-        <v>17.96528885461717</v>
+        <v>11.58472762762501</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.62206511110484</v>
+        <v>11.36998959349002</v>
       </c>
       <c r="L2">
-        <v>9.879110084296308</v>
+        <v>6.884424156194319</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.05370929473121</v>
+        <v>13.86364684440992</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.11697530907573</v>
+        <v>14.32457131118501</v>
       </c>
       <c r="C3">
-        <v>7.436619688945807</v>
+        <v>5.940388460201805</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.63632060300179</v>
+        <v>7.652389138534388</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>43.40566878627979</v>
+        <v>32.98097509573286</v>
       </c>
       <c r="H3">
-        <v>18.01548792079482</v>
+        <v>11.62574762002428</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.49461062204216</v>
+        <v>10.60999565968774</v>
       </c>
       <c r="L3">
-        <v>9.8690195119026</v>
+        <v>6.689852240655147</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.12182643385264</v>
+        <v>14.10090647343523</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.00214567654348</v>
+        <v>13.76551543978103</v>
       </c>
       <c r="C4">
-        <v>7.417666176567137</v>
+        <v>5.876326920954007</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.64148435617159</v>
+        <v>7.569028619158089</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>43.45257127351685</v>
+        <v>32.75460401302801</v>
       </c>
       <c r="H4">
-        <v>18.04923104990212</v>
+        <v>11.65871324375169</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.41825837136148</v>
+        <v>10.11729516715325</v>
       </c>
       <c r="L4">
-        <v>9.864581121215602</v>
+        <v>6.571453951167654</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.16560678525283</v>
+        <v>14.24978955448756</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.9560323016867</v>
+        <v>13.53282371966338</v>
       </c>
       <c r="C5">
-        <v>7.409843296101898</v>
+        <v>5.850000046144654</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.64409671408608</v>
+        <v>7.535909486468892</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>43.47462602694754</v>
+        <v>32.67038080964868</v>
       </c>
       <c r="H5">
-        <v>18.06371534946115</v>
+        <v>11.67402389268974</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.38765787214931</v>
+        <v>9.909920042370777</v>
       </c>
       <c r="L5">
-        <v>9.863216080908236</v>
+        <v>6.523533488151753</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.18394089390627</v>
+        <v>14.31129250064821</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.94841793575135</v>
+        <v>13.49389826285458</v>
       </c>
       <c r="C6">
-        <v>7.408538359250096</v>
+        <v>5.845615313512851</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.64456119213344</v>
+        <v>7.530462061237365</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>43.47846556511985</v>
+        <v>32.65687315138967</v>
       </c>
       <c r="H6">
-        <v>18.06616474828299</v>
+        <v>11.67667730971603</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.38260869667855</v>
+        <v>9.875086035379185</v>
       </c>
       <c r="L6">
-        <v>9.863016258072962</v>
+        <v>6.51559789227082</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.18701509068231</v>
+        <v>14.32155600464032</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.00152094633229</v>
+        <v>13.76239669187367</v>
       </c>
       <c r="C7">
-        <v>7.417561074359695</v>
+        <v>5.875972755027172</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.64151752960194</v>
+        <v>7.568578490663683</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>43.45285681474633</v>
+        <v>32.75343597641447</v>
       </c>
       <c r="H7">
-        <v>18.04942342051258</v>
+        <v>11.65891223173703</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.4178435576249</v>
+        <v>10.11452519274494</v>
       </c>
       <c r="L7">
-        <v>9.864560913390989</v>
+        <v>6.570806272384557</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.16585204646296</v>
+        <v>14.25061560271247</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.24167793096979</v>
+        <v>14.90387929941519</v>
       </c>
       <c r="C8">
-        <v>7.456502382802962</v>
+        <v>6.00797488132179</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.63254583322109</v>
+        <v>7.744191987479576</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>43.3657016479451</v>
+        <v>33.2506168257382</v>
       </c>
       <c r="H8">
-        <v>17.98199086682603</v>
+        <v>11.59720821682286</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.5777443730657</v>
+        <v>11.11332591906738</v>
       </c>
       <c r="L8">
-        <v>9.875267268543395</v>
+        <v>6.8171482400026</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.0767909132015</v>
+        <v>13.94480483019643</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.72981084228364</v>
+        <v>16.97513353149316</v>
       </c>
       <c r="C9">
-        <v>7.529645138443356</v>
+        <v>6.259469705396696</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.63094212358256</v>
+        <v>8.113765974380623</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>43.28827821481014</v>
+        <v>34.49508488612229</v>
       </c>
       <c r="H9">
-        <v>17.8729627275854</v>
+        <v>11.54162494612382</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.90486738284968</v>
+        <v>12.86730163877642</v>
       </c>
       <c r="L9">
-        <v>9.910117787858908</v>
+        <v>7.306289339229146</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.91759978085068</v>
+        <v>13.36930414067523</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.0955079849236</v>
+        <v>18.40299209083702</v>
       </c>
       <c r="C10">
-        <v>7.581351514942878</v>
+        <v>6.439606762730064</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.63946654085591</v>
+        <v>8.399328966508858</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>43.28880785969233</v>
+        <v>35.5845700526498</v>
       </c>
       <c r="H10">
-        <v>17.80705117165894</v>
+        <v>11.5459546690496</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.15134036682225</v>
+        <v>14.03437237216936</v>
       </c>
       <c r="L10">
-        <v>9.944036553951314</v>
+        <v>7.666425580981399</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.80997444013686</v>
+        <v>12.95943065635543</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.26268399296289</v>
+        <v>19.08434413311618</v>
       </c>
       <c r="C11">
-        <v>7.604418565906151</v>
+        <v>6.52055044368202</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.64543802632986</v>
+        <v>8.532019115223477</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>43.30157475773917</v>
+        <v>36.12019183596929</v>
       </c>
       <c r="H11">
-        <v>17.78015688643381</v>
+        <v>11.55893430900904</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.26434229587207</v>
+        <v>14.53966846095784</v>
       </c>
       <c r="L11">
-        <v>9.961238689186617</v>
+        <v>7.82990984635033</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.76301994336216</v>
+        <v>12.77536496414316</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.32604733792536</v>
+        <v>19.33760991542476</v>
       </c>
       <c r="C12">
-        <v>7.613086821564266</v>
+        <v>6.551059903192677</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.64799885943983</v>
+        <v>8.582645481145294</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>43.30821262127421</v>
+        <v>36.32891032728497</v>
       </c>
       <c r="H12">
-        <v>17.77041767406114</v>
+        <v>11.56553618107105</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.30722164203628</v>
+        <v>14.72739522003051</v>
       </c>
       <c r="L12">
-        <v>9.968004234393698</v>
+        <v>7.891732260970766</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.7455263682602</v>
+        <v>12.70597207081119</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.31239930099805</v>
+        <v>19.28327451585799</v>
       </c>
       <c r="C13">
-        <v>7.61122294778965</v>
+        <v>6.544495415906992</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.64743404124683</v>
+        <v>8.571725619519519</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>43.30670281957009</v>
+        <v>36.28369499840991</v>
       </c>
       <c r="H13">
-        <v>17.77249537996627</v>
+        <v>11.56403764351642</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.29798350455225</v>
+        <v>14.68712473224582</v>
       </c>
       <c r="L13">
-        <v>9.9665360257017</v>
+        <v>7.87842200874818</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.74928117418013</v>
+        <v>12.72090390484619</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.26789612371632</v>
+        <v>19.10527516885554</v>
       </c>
       <c r="C14">
-        <v>7.605133053945718</v>
+        <v>6.523063306290804</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.6456427132931</v>
+        <v>8.536176683598363</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>43.30208471140916</v>
+        <v>36.13724442742108</v>
       </c>
       <c r="H14">
-        <v>17.779346710978</v>
+        <v>11.55944303788081</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.26786846183136</v>
+        <v>14.5551849758923</v>
       </c>
       <c r="L14">
-        <v>9.961790275160382</v>
+        <v>7.834997911914536</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.76157498993911</v>
+        <v>12.76964998375192</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.24064235156908</v>
+        <v>18.99562943162362</v>
       </c>
       <c r="C15">
-        <v>7.601394085979398</v>
+        <v>6.509917097696727</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.64458443680281</v>
+        <v>8.514450768659271</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>43.29949086625616</v>
+        <v>36.04831022418458</v>
       </c>
       <c r="H15">
-        <v>17.78360133483303</v>
+        <v>11.55685151003181</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.24943244727367</v>
+        <v>14.47389890496388</v>
       </c>
       <c r="L15">
-        <v>9.9589160097388</v>
+        <v>7.808387297116054</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.76914265670387</v>
+        <v>12.79954752684652</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.08459393096965</v>
+        <v>18.3577957220705</v>
       </c>
       <c r="C16">
-        <v>7.579834765731083</v>
+        <v>6.434296862504049</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.63911829608028</v>
+        <v>8.390711554297487</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>43.28822578378717</v>
+        <v>35.55038289211979</v>
       </c>
       <c r="H16">
-        <v>17.80887101218347</v>
+        <v>11.54533673778783</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.14396982635354</v>
+        <v>14.00084018422536</v>
       </c>
       <c r="L16">
-        <v>9.942947733978231</v>
+        <v>7.655731353997562</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.8130832646196</v>
+        <v>12.9715049092419</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.9890296798127</v>
+        <v>17.98622592451695</v>
       </c>
       <c r="C17">
-        <v>7.566491440082357</v>
+        <v>6.387650471195391</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.63630022787213</v>
+        <v>8.315499362949621</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>43.28452522863857</v>
+        <v>35.25526821872832</v>
       </c>
       <c r="H17">
-        <v>17.82516497251105</v>
+        <v>11.54116526607555</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.07946975618277</v>
+        <v>13.70411936190774</v>
       </c>
       <c r="L17">
-        <v>9.93360332088314</v>
+        <v>7.561966189250757</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.84055201522182</v>
+        <v>13.07758263597957</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.93414424087428</v>
+        <v>17.77608416642679</v>
       </c>
       <c r="C18">
-        <v>7.558774021122412</v>
+        <v>6.360726197565268</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.63487651982336</v>
+        <v>8.272502683179722</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>43.28357574666638</v>
+        <v>35.08928450801886</v>
       </c>
       <c r="H18">
-        <v>17.83482755000402</v>
+        <v>11.53979584923754</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.0424561528062</v>
+        <v>13.53103870266562</v>
       </c>
       <c r="L18">
-        <v>9.928395700207213</v>
+        <v>7.508004386430546</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.85654008802886</v>
+        <v>13.13882265015682</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.91557667138143</v>
+        <v>17.70454400750382</v>
       </c>
       <c r="C19">
-        <v>7.556153745767998</v>
+        <v>6.351593845856699</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.63442838366586</v>
+        <v>8.257990665354273</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>43.28345666874158</v>
+        <v>35.0337264785145</v>
       </c>
       <c r="H19">
-        <v>17.83814903839065</v>
+        <v>11.53950597878832</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.02993978697205</v>
+        <v>13.47201993456308</v>
       </c>
       <c r="L19">
-        <v>9.926661277261987</v>
+        <v>7.489729802809768</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.86198583417064</v>
+        <v>13.15959746832369</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.99919475705481</v>
+        <v>18.02493300849102</v>
       </c>
       <c r="C20">
-        <v>7.5679162883017</v>
+        <v>6.392625832768252</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.63657981997184</v>
+        <v>8.323478730837374</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>43.28479711866266</v>
+        <v>35.2862936775748</v>
       </c>
       <c r="H20">
-        <v>17.82340035769582</v>
+        <v>11.54150199669476</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.08632736900178</v>
+        <v>13.73595525525618</v>
       </c>
       <c r="L20">
-        <v>9.934580785448457</v>
+        <v>7.571951095882433</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.83760839125419</v>
+        <v>13.06626724216803</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.28096670174324</v>
+        <v>19.1576861259232</v>
       </c>
       <c r="C21">
-        <v>7.606923625634203</v>
+        <v>6.529362269404762</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.646160752722</v>
+        <v>8.546608124804484</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>43.30339221160094</v>
+        <v>36.18009959993256</v>
       </c>
       <c r="H21">
-        <v>17.77732222332967</v>
+        <v>11.56074596365118</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.27671189764222</v>
+        <v>14.59403653135481</v>
       </c>
       <c r="L21">
-        <v>9.963177420601268</v>
+        <v>7.84775519918412</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.75795621676243</v>
+        <v>12.75532398119027</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.4654285996427</v>
+        <v>19.88610680314041</v>
       </c>
       <c r="C22">
-        <v>7.632027545589247</v>
+        <v>6.617901212170656</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.65416768014923</v>
+        <v>8.694640126273026</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>43.32605610351944</v>
+        <v>36.79864512936206</v>
       </c>
       <c r="H22">
-        <v>17.74980207651408</v>
+        <v>11.58320537792227</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.40163441870914</v>
+        <v>15.13378757389972</v>
       </c>
       <c r="L22">
-        <v>9.983330980018383</v>
+        <v>8.027498438227067</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.70757164757187</v>
+        <v>12.55388735057115</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.36696925109074</v>
+        <v>19.49983759777664</v>
       </c>
       <c r="C23">
-        <v>7.618665220104375</v>
+        <v>6.570720751761293</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.6497350920527</v>
+        <v>8.615437298640584</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>43.312997937377</v>
+        <v>36.4653253549221</v>
       </c>
       <c r="H23">
-        <v>17.76425242148914</v>
+        <v>11.57027898215344</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.3349282213805</v>
+        <v>14.84761623013503</v>
       </c>
       <c r="L23">
-        <v>9.972441875634736</v>
+        <v>7.9316230807883</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.73431018344535</v>
+        <v>12.66124655592052</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.99459894743666</v>
+        <v>18.00744091645699</v>
       </c>
       <c r="C24">
-        <v>7.567272258128164</v>
+        <v>6.390376804080361</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.63645280439962</v>
+        <v>8.319870497558126</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>43.28467052783294</v>
+        <v>35.27225561052945</v>
       </c>
       <c r="H24">
-        <v>17.82419722128848</v>
+        <v>11.54134656404012</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.08322682639088</v>
+        <v>13.72157001445537</v>
       </c>
       <c r="L24">
-        <v>9.934138360734874</v>
+        <v>7.567437087963993</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.83893859323264</v>
+        <v>13.07138213635131</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.59626981854826</v>
+        <v>16.43349827103135</v>
       </c>
       <c r="C25">
-        <v>7.510209920728368</v>
+        <v>6.192242438442961</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.62966807067825</v>
+        <v>8.011226026160703</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>43.29916560218716</v>
+        <v>34.1283693868638</v>
       </c>
       <c r="H25">
-        <v>17.89996865047533</v>
+        <v>11.54912475812089</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.81513901697719</v>
+        <v>12.41439981898639</v>
       </c>
       <c r="L25">
-        <v>9.899219086268287</v>
+        <v>7.173635137027665</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.9590198170167</v>
+        <v>13.52258358054625</v>
       </c>
       <c r="O25">
         <v>0</v>
